--- a/app/Licenciatura_em_Linguistica.xlsx
+++ b/app/Licenciatura_em_Linguistica.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Lina Simeao Timba Ubisse</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Maria Pedro Langa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110501746140B</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>Cacilda Virginia Cutane</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110101444685A</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>Marta Armando</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101767727B</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
     <t>Irene Jose</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>080501131255I</t>
   </si>
   <si>
@@ -521,9 +506,6 @@
     <t>Atija Sualei Ossifo</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>+258826379061</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
   </si>
   <si>
     <t>Marta Mondlane</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
   </si>
   <si>
     <t>Talao de Bilhete de Identificacao</t>
@@ -2123,7 +2102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2139,7 +2118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2155,7 +2134,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2171,7 +2150,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2187,7 +2166,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2202,9 +2181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2212,7 +2189,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2223,7 +2200,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2232,7 +2209,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2244,7 +2221,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2252,7 +2229,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2348,7 +2325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2391,7 +2368,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2718,7 +2695,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2734,7 +2711,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2750,7 +2727,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2766,7 +2743,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2782,7 +2759,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2797,9 +2774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2807,7 +2782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2818,7 +2793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2827,7 +2802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2839,7 +2814,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2847,7 +2822,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2943,7 +2918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2986,7 +2961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3313,7 +3288,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3329,7 +3304,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3345,7 +3320,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3361,7 +3336,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3377,7 +3352,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3392,9 +3367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3402,7 +3375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3413,7 +3386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3422,7 +3395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3434,7 +3407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3538,7 +3511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3581,7 +3554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3908,7 +3881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3924,7 +3897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3940,7 +3913,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3956,7 +3929,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3972,7 +3945,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3987,9 +3960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3997,7 +3968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4008,7 +3979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4017,7 +3988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4029,7 +4000,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4037,7 +4008,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4133,7 +4104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4176,7 +4147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4503,7 +4474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4519,7 +4490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4535,7 +4506,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4551,7 +4522,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4567,7 +4538,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4582,9 +4553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4592,7 +4561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4603,7 +4572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4612,7 +4581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4624,7 +4593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4632,7 +4601,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4728,7 +4697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4771,7 +4740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5098,7 +5067,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5114,7 +5083,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5130,7 +5099,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5146,7 +5115,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5162,7 +5131,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5177,9 +5146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5187,7 +5154,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5198,7 +5165,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5207,7 +5174,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5219,7 +5186,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5227,7 +5194,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5323,7 +5290,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5366,7 +5333,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5693,7 +5660,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5709,7 +5676,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5725,7 +5692,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5741,7 +5708,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5757,7 +5724,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5772,9 +5739,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5782,7 +5747,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5793,7 +5758,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5802,7 +5767,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5814,7 +5779,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5918,7 +5883,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5961,7 +5926,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6288,7 +6253,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6304,7 +6269,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6320,7 +6285,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6336,7 +6301,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6352,7 +6317,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6367,9 +6332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6377,7 +6340,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6388,7 +6351,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6397,7 +6360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6409,7 +6372,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6417,7 +6380,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6513,7 +6476,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6556,7 +6519,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6883,7 +6846,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6899,7 +6862,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6915,7 +6878,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6931,7 +6894,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6947,7 +6910,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6962,9 +6925,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6972,7 +6933,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6983,7 +6944,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6992,7 +6953,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7004,7 +6965,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7012,7 +6973,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7108,7 +7069,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7151,7 +7112,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7478,7 +7439,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7494,7 +7455,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7510,7 +7471,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7526,7 +7487,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7542,7 +7503,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7557,9 +7518,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7567,7 +7526,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7578,7 +7537,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7587,7 +7546,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7599,7 +7558,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7607,7 +7566,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7703,7 +7662,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7746,7 +7705,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8152,9 +8111,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8162,7 +8119,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8173,7 +8130,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8182,7 +8139,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8194,7 +8151,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8202,7 +8159,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8298,7 +8255,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8341,7 +8298,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8668,7 +8625,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8684,7 +8641,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8700,7 +8657,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8716,7 +8673,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8732,7 +8689,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8747,9 +8704,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8757,7 +8712,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8768,7 +8723,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8777,7 +8732,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8789,7 +8744,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8797,7 +8752,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8893,7 +8848,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8936,7 +8891,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9263,7 +9218,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9279,7 +9234,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9295,7 +9250,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9311,7 +9266,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9327,7 +9282,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9342,9 +9297,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9352,7 +9305,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9363,7 +9316,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9372,7 +9325,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9384,7 +9337,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9392,7 +9345,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9488,7 +9441,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9531,7 +9484,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9858,7 +9811,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9874,7 +9827,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9890,7 +9843,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9906,7 +9859,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9922,7 +9875,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9937,9 +9890,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9947,7 +9898,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9958,7 +9909,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9967,7 +9918,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9979,7 +9930,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9987,7 +9938,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10083,7 +10034,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10126,7 +10077,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10453,7 +10404,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10469,7 +10420,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10485,7 +10436,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10501,7 +10452,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10517,7 +10468,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10532,9 +10483,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10542,7 +10491,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10553,7 +10502,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10562,7 +10511,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10574,7 +10523,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10582,7 +10531,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10678,7 +10627,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10721,7 +10670,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11048,7 +10997,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11064,7 +11013,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11080,7 +11029,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11096,7 +11045,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11112,7 +11061,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11127,9 +11076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11137,7 +11084,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11148,7 +11095,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11157,7 +11104,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11169,7 +11116,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11177,7 +11124,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11273,7 +11220,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11316,7 +11263,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11643,7 +11590,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11659,7 +11606,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11675,7 +11622,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11691,7 +11638,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11707,7 +11654,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11722,9 +11669,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11732,7 +11677,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11743,7 +11688,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11752,7 +11697,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11764,7 +11709,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11868,7 +11813,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11911,7 +11856,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12238,7 +12183,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12254,7 +12199,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12270,7 +12215,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12286,7 +12231,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12302,7 +12247,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12317,9 +12262,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12327,7 +12270,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12338,7 +12281,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12347,7 +12290,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12359,7 +12302,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12367,7 +12310,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12463,7 +12406,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12506,7 +12449,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12833,7 +12776,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12849,7 +12792,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12865,7 +12808,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12881,7 +12824,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12897,7 +12840,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12912,9 +12855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12922,7 +12863,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12933,7 +12874,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12942,7 +12883,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12954,7 +12895,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12962,7 +12903,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13058,7 +12999,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13101,7 +13042,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13428,7 +13369,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13444,7 +13385,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13460,7 +13401,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13476,7 +13417,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13505,9 +13446,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13515,7 +13454,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13526,7 +13465,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13535,7 +13474,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13547,7 +13486,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13555,7 +13494,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13651,7 +13590,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13694,7 +13633,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14021,7 +13960,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14037,7 +13976,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14053,7 +13992,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14069,7 +14008,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14085,7 +14024,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14100,9 +14039,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14110,7 +14047,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14121,7 +14058,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14130,7 +14067,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14142,7 +14079,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14150,7 +14087,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14246,7 +14183,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14289,7 +14226,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14616,7 +14553,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14632,7 +14569,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14648,7 +14585,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14664,7 +14601,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14680,7 +14617,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14695,9 +14632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14705,7 +14640,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14716,7 +14651,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14725,7 +14660,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14737,7 +14672,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14745,7 +14680,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14841,7 +14776,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14884,7 +14819,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15211,7 +15146,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15227,7 +15162,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15243,7 +15178,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15259,7 +15194,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15275,7 +15210,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15290,9 +15225,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15300,7 +15233,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15311,7 +15244,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15320,7 +15253,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15332,7 +15265,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15340,7 +15273,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15436,7 +15369,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15479,7 +15412,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15806,7 +15739,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15822,7 +15755,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15838,7 +15771,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15854,7 +15787,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15870,7 +15803,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15885,9 +15818,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15895,7 +15826,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15906,7 +15837,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15915,7 +15846,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15927,7 +15858,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15935,7 +15866,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16031,7 +15962,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16074,7 +16005,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16457,7 +16388,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16473,7 +16404,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16489,7 +16420,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16505,7 +16436,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16521,7 +16452,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16536,9 +16467,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16546,7 +16475,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16557,7 +16486,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16566,7 +16495,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16578,7 +16507,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16586,7 +16515,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16682,7 +16611,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16725,7 +16654,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17052,7 +16981,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17068,7 +16997,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17084,7 +17013,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17100,7 +17029,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17116,7 +17045,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17131,9 +17060,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17141,7 +17068,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17152,7 +17079,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17161,7 +17088,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17173,7 +17100,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17181,7 +17108,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17277,7 +17204,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17320,7 +17247,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17647,7 +17574,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17663,7 +17590,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17854,7 +17781,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18220,7 +18147,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18236,7 +18163,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18252,7 +18179,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18268,7 +18195,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18284,7 +18211,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18299,9 +18226,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18309,7 +18234,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18320,7 +18245,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18329,7 +18254,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18341,7 +18266,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18349,7 +18274,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18445,7 +18370,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18488,7 +18413,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18815,7 +18740,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18831,7 +18756,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18847,7 +18772,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18863,7 +18788,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18879,7 +18804,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18894,9 +18819,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18904,7 +18827,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18915,7 +18838,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18924,7 +18847,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18936,7 +18859,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18944,7 +18867,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19040,7 +18963,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19083,7 +19006,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19410,7 +19333,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19426,7 +19349,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19617,7 +19540,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
